--- a/gui/mat_mech_druckerPrager.xlsx
+++ b/gui/mat_mech_druckerPrager.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dborges\repos\porousLab\gui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668B8C38-2CA3-4C3E-B3E3-493A1CE66C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E6AFB6-A056-482B-8C9C-6113DD1A1D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E77D3B86-60E5-4C01-95BB-1EDAB849D61B}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{E77D3B86-60E5-4C01-95BB-1EDAB849D61B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Density</t>
   </si>
   <si>
-    <t>kg/m3</t>
-  </si>
-  <si>
     <t>Cohesion</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>Dilation angle</t>
+  </si>
+  <si>
+    <t>g/cm3</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,15 +470,15 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -489,24 +489,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
